--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -15,13 +15,14 @@
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
     <sheet name="출판사목록" sheetId="3" r:id="rId2"/>
     <sheet name="저자목록" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="723">
   <si>
     <t>다산초당</t>
   </si>
@@ -2126,6 +2127,131 @@
   <si>
     <t>발행일</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴파워 - 새로운 권력의 탄생</t>
+  </si>
+  <si>
+    <t>'9791162540466</t>
+  </si>
+  <si>
+    <t>'9791188850327</t>
+  </si>
+  <si>
+    <t>'9791162540558</t>
+  </si>
+  <si>
+    <t>'9791162540695</t>
+  </si>
+  <si>
+    <t>'9791188850518</t>
+  </si>
+  <si>
+    <t>'9791188850303</t>
+  </si>
+  <si>
+    <t>'9791188850501</t>
+  </si>
+  <si>
+    <t>'9791188850341</t>
+  </si>
+  <si>
+    <t>'9791162540527</t>
+  </si>
+  <si>
+    <t>'9791162540671</t>
+  </si>
+  <si>
+    <t>'9791188850440</t>
+  </si>
+  <si>
+    <t>'9791162540718</t>
+  </si>
+  <si>
+    <t>'9791162540732</t>
+  </si>
+  <si>
+    <t>'9791188850280</t>
+  </si>
+  <si>
+    <t>'9791188850549</t>
+  </si>
+  <si>
+    <t>'9791188850266</t>
+  </si>
+  <si>
+    <t>'9791186805398</t>
+  </si>
+  <si>
+    <t>'9791162540770</t>
+  </si>
+  <si>
+    <t>'9791162540619</t>
+  </si>
+  <si>
+    <t>'9791162540640</t>
+  </si>
+  <si>
+    <t>'9791162540572</t>
+  </si>
+  <si>
+    <t>'9791188850389</t>
+  </si>
+  <si>
+    <t>'9791188850426</t>
+  </si>
+  <si>
+    <t>'9791188850471</t>
+  </si>
+  <si>
+    <t>'9791162540480</t>
+  </si>
+  <si>
+    <t>'9791162540503</t>
+  </si>
+  <si>
+    <t>'9791188850365</t>
+  </si>
+  <si>
+    <t>'9791188850402</t>
+  </si>
+  <si>
+    <t>'9791162540756</t>
+  </si>
+  <si>
+    <t>'9791162540596</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 연락처</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사 대표</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2789,7 +2915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2834,6 +2960,12 @@
     </xf>
     <xf numFmtId="176" fontId="24" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3160,13 +3292,13 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -3205,8 +3337,9 @@
       <c r="C2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>312</v>
+      <c r="D2" s="11" t="str">
+        <f ca="1">"A"&amp; TEXT(RANDBETWEEN(1,34), "0000")</f>
+        <v>A0012</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>656</v>
@@ -3896,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E57"/>
     </sheetView>
   </sheetViews>
@@ -5640,7 +5773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -6147,4 +6280,832 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="15">
+        <v>43402</v>
+      </c>
+      <c r="H2">
+        <v>18000</v>
+      </c>
+      <c r="I2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43433</v>
+      </c>
+      <c r="H3">
+        <v>14000</v>
+      </c>
+      <c r="I3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G4" s="15">
+        <v>43475</v>
+      </c>
+      <c r="H4">
+        <v>15800</v>
+      </c>
+      <c r="I4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="15">
+        <v>43549</v>
+      </c>
+      <c r="H5">
+        <v>15000</v>
+      </c>
+      <c r="I5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H6">
+        <v>14000</v>
+      </c>
+      <c r="I6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="15">
+        <v>43427</v>
+      </c>
+      <c r="H7">
+        <v>13500</v>
+      </c>
+      <c r="I7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H8">
+        <v>14000</v>
+      </c>
+      <c r="I8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G9" s="15">
+        <v>43454</v>
+      </c>
+      <c r="H9">
+        <v>14800</v>
+      </c>
+      <c r="I9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43449</v>
+      </c>
+      <c r="H10">
+        <v>13500</v>
+      </c>
+      <c r="I10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43544</v>
+      </c>
+      <c r="H11">
+        <v>13800</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G12" s="15">
+        <v>43539</v>
+      </c>
+      <c r="H12">
+        <v>13800</v>
+      </c>
+      <c r="I12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="15">
+        <v>43554</v>
+      </c>
+      <c r="H13">
+        <v>13000</v>
+      </c>
+      <c r="I13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>444</v>
+      </c>
+      <c r="G14" s="15">
+        <v>43555</v>
+      </c>
+      <c r="H14">
+        <v>22000</v>
+      </c>
+      <c r="I14">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>479</v>
+      </c>
+      <c r="G15" s="15">
+        <v>43419</v>
+      </c>
+      <c r="H15">
+        <v>14800</v>
+      </c>
+      <c r="I15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="15">
+        <v>43566</v>
+      </c>
+      <c r="H16">
+        <v>13000</v>
+      </c>
+      <c r="I16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="15">
+        <v>43404</v>
+      </c>
+      <c r="H17">
+        <v>14000</v>
+      </c>
+      <c r="I17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>701</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" t="s">
+        <v>462</v>
+      </c>
+      <c r="G18" s="15">
+        <v>43516</v>
+      </c>
+      <c r="H18">
+        <v>16000</v>
+      </c>
+      <c r="I18">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="15">
+        <v>43570</v>
+      </c>
+      <c r="H19">
+        <v>15000</v>
+      </c>
+      <c r="I19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>703</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>506</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43511</v>
+      </c>
+      <c r="H20">
+        <v>14000</v>
+      </c>
+      <c r="I20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>704</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>524</v>
+      </c>
+      <c r="E21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="15">
+        <v>43522</v>
+      </c>
+      <c r="H21">
+        <v>16000</v>
+      </c>
+      <c r="I21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>705</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" s="15">
+        <v>43483</v>
+      </c>
+      <c r="H22">
+        <v>15000</v>
+      </c>
+      <c r="I22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>706</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>539</v>
+      </c>
+      <c r="G23" s="15">
+        <v>43493</v>
+      </c>
+      <c r="H23">
+        <v>13800</v>
+      </c>
+      <c r="I23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>551</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43523</v>
+      </c>
+      <c r="H24">
+        <v>16800</v>
+      </c>
+      <c r="I24">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>569</v>
+      </c>
+      <c r="G25" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H25">
+        <v>25000</v>
+      </c>
+      <c r="I25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>569</v>
+      </c>
+      <c r="E26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" t="s">
+        <v>471</v>
+      </c>
+      <c r="G26" s="15">
+        <v>43403</v>
+      </c>
+      <c r="H26">
+        <v>20000</v>
+      </c>
+      <c r="I26">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>710</v>
+      </c>
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>578</v>
+      </c>
+      <c r="G27" s="15">
+        <v>43428</v>
+      </c>
+      <c r="H27">
+        <v>16500</v>
+      </c>
+      <c r="I27">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" s="15">
+        <v>43459</v>
+      </c>
+      <c r="H28">
+        <v>13500</v>
+      </c>
+      <c r="I28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>587</v>
+      </c>
+      <c r="G29" s="15">
+        <v>43494</v>
+      </c>
+      <c r="H29">
+        <v>13500</v>
+      </c>
+      <c r="I29">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>713</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>611</v>
+      </c>
+      <c r="G30" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H30">
+        <v>15000</v>
+      </c>
+      <c r="I30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>714</v>
+      </c>
+      <c r="B31" t="s">
+        <v>684</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>614</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="15">
+        <v>43495</v>
+      </c>
+      <c r="H31">
+        <v>18000</v>
+      </c>
+      <c r="I31">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>